--- a/teaching/traditional_assets/database/data/ireland/ireland_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/ireland/ireland_precious_metals.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-6.707000000000001</v>
+        <v>-1.734</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,70 +615,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.429</v>
+        <v>0.17</v>
       </c>
       <c r="V2">
-        <v>0.02875335120643431</v>
+        <v>0.005407124681933843</v>
       </c>
       <c r="W2">
-        <v>-0.06513095238095237</v>
+        <v>-0.04872549019607843</v>
       </c>
       <c r="X2">
-        <v>0.08452176228741484</v>
+        <v>0.05981543109285033</v>
       </c>
       <c r="Y2">
-        <v>-0.1496527146683672</v>
+        <v>-0.1085409212889288</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.06625304360732007</v>
+        <v>-0.04757760371337395</v>
       </c>
       <c r="AB2">
-        <v>0.08092468960780295</v>
+        <v>0.05817469445585257</v>
       </c>
       <c r="AC2">
-        <v>-0.1466457277776811</v>
+        <v>-0.1058854123940585</v>
       </c>
       <c r="AD2">
-        <v>1.417</v>
+        <v>1.47</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.417</v>
+        <v>1.47</v>
       </c>
       <c r="AG2">
-        <v>0.988</v>
+        <v>1.3</v>
       </c>
       <c r="AH2">
-        <v>0.08673563077676438</v>
+        <v>0.04466727438468551</v>
       </c>
       <c r="AI2">
-        <v>0.01889660874551589</v>
+        <v>0.03611793611793612</v>
       </c>
       <c r="AJ2">
-        <v>0.06210711591651998</v>
+        <v>0.03970678069639585</v>
       </c>
       <c r="AK2">
-        <v>0.01325142841814426</v>
+        <v>0.03207500616827041</v>
       </c>
       <c r="AL2">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AN2">
-        <v>-0.3042078145126664</v>
+        <v>-1.233221476510067</v>
       </c>
       <c r="AO2">
-        <v>-7377.000000000001</v>
+        <v>-576.3333333333334</v>
       </c>
       <c r="AP2">
-        <v>-0.2121082009446114</v>
+        <v>-1.090604026845638</v>
+      </c>
+      <c r="AQ2">
+        <v>-576.3333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -698,7 +701,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.622</v>
+        <v>-0.753</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -722,55 +725,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.08599999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="V3">
-        <v>0.04804469273743017</v>
+        <v>0.007027027027027027</v>
       </c>
       <c r="W3">
-        <v>-0.02990384615384615</v>
+        <v>-0.0378391959798995</v>
       </c>
       <c r="X3">
-        <v>0.09937756544114594</v>
+        <v>0.06005851874003106</v>
       </c>
       <c r="Y3">
-        <v>-0.1292814115949921</v>
+        <v>-0.09789771471993056</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.02979640718562874</v>
+        <v>-0.03674963396778917</v>
       </c>
       <c r="AB3">
-        <v>0.08295083097507863</v>
+        <v>0.05817469445585257</v>
       </c>
       <c r="AC3">
-        <v>-0.1127472381607074</v>
+        <v>-0.09492432842364174</v>
       </c>
       <c r="AD3">
-        <v>0.676</v>
+        <v>1.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.676</v>
+        <v>1.2</v>
       </c>
       <c r="AG3">
-        <v>0.5900000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AH3">
-        <v>0.2741281427412814</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="AI3">
-        <v>0.0328538102643857</v>
+        <v>0.05769230769230769</v>
       </c>
       <c r="AJ3">
-        <v>0.2478991596638656</v>
+        <v>0.05467552376085845</v>
       </c>
       <c r="AK3">
-        <v>0.02879453391898488</v>
+        <v>0.0517658442186744</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -779,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>-1.090322580645161</v>
+        <v>-1.6</v>
       </c>
       <c r="AP3">
-        <v>-0.9516129032258066</v>
+        <v>-1.426666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -793,7 +796,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karelian Diamond Resources plc (AIM:KDR)</t>
+          <t>Karelian Diamond Resources Plc (AIM:KDR)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -802,7 +805,7 @@
         </is>
       </c>
       <c r="K4">
-        <v>-0.414</v>
+        <v>-0.497</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -826,61 +829,67 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.035</v>
+        <v>0.018</v>
       </c>
       <c r="V4">
-        <v>0.02</v>
+        <v>0.003938730853391684</v>
       </c>
       <c r="W4">
-        <v>-0.03942857142857142</v>
+        <v>-0.04872549019607843</v>
       </c>
       <c r="X4">
-        <v>0.08476683277259735</v>
+        <v>0.05981543109285033</v>
       </c>
       <c r="Y4">
-        <v>-0.1241954042011688</v>
+        <v>-0.1085409212889288</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.03868435806391329</v>
+        <v>-0.04757760371337395</v>
       </c>
       <c r="AB4">
-        <v>0.08132173527767314</v>
+        <v>0.05830780868068455</v>
       </c>
       <c r="AC4">
-        <v>-0.1200060933415864</v>
+        <v>-0.1058854123940585</v>
       </c>
       <c r="AD4">
-        <v>0.176</v>
+        <v>0.27</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.176</v>
+        <v>0.27</v>
       </c>
       <c r="AG4">
-        <v>0.141</v>
+        <v>0.252</v>
       </c>
       <c r="AH4">
-        <v>0.09138110072689512</v>
+        <v>0.05578512396694216</v>
       </c>
       <c r="AI4">
-        <v>0.01696222050886662</v>
+        <v>0.02603664416586307</v>
       </c>
       <c r="AJ4">
-        <v>0.0745637228979376</v>
+        <v>0.05226047283284944</v>
       </c>
       <c r="AK4">
-        <v>0.01363504496663766</v>
+        <v>0.02434312210200927</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.003</v>
+      </c>
+      <c r="AO4">
+        <v>-164</v>
+      </c>
+      <c r="AQ4">
+        <v>-164</v>
       </c>
     </row>
     <row r="5">
@@ -900,7 +909,7 @@
         </is>
       </c>
       <c r="K5">
-        <v>-0.981</v>
+        <v>-0.484</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -924,31 +933,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="V5">
-        <v>0.003468208092485549</v>
+        <v>0.002628434886499403</v>
       </c>
       <c r="W5">
-        <v>-0.09083333333333332</v>
+        <v>-0.04953940634595701</v>
       </c>
       <c r="X5">
-        <v>0.07946363306304902</v>
+        <v>0.0573323578869859</v>
       </c>
       <c r="Y5">
-        <v>-0.1702969663963823</v>
+        <v>-0.1068717642329429</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>-0.09382172915072684</v>
+        <v>-0.04963084495488106</v>
       </c>
       <c r="AB5">
-        <v>0.07946363306304902</v>
+        <v>0.0573323578869859</v>
       </c>
       <c r="AC5">
-        <v>-0.1732853622137759</v>
+        <v>-0.106963202841867</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -960,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-0.018</v>
+        <v>-0.022</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -969,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.003480278422273781</v>
+        <v>-0.002635361763296598</v>
       </c>
       <c r="AK5">
-        <v>-0.00184577522559475</v>
+        <v>-0.002313840976020194</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -984,114 +993,7 @@
         <v>-0</v>
       </c>
       <c r="AP5">
-        <v>0.04205607476635514</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Kibo Energy PLC (AIM:KIBO)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Precious Metals</t>
-        </is>
-      </c>
-      <c r="K6">
-        <v>-4.69</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.29</v>
-      </c>
-      <c r="V6">
-        <v>0.0468497576736672</v>
-      </c>
-      <c r="W6">
-        <v>-0.1237467018469657</v>
-      </c>
-      <c r="X6">
-        <v>0.08427669180223235</v>
-      </c>
-      <c r="Y6">
-        <v>-0.2080233936491981</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>-0.1453756441551397</v>
-      </c>
-      <c r="AB6">
-        <v>0.08052764393793277</v>
-      </c>
-      <c r="AC6">
-        <v>-0.2259032880930725</v>
-      </c>
-      <c r="AD6">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="AG6">
-        <v>0.275</v>
-      </c>
-      <c r="AH6">
-        <v>0.08364174685418208</v>
-      </c>
-      <c r="AI6">
-        <v>0.01648912884867941</v>
-      </c>
-      <c r="AJ6">
-        <v>0.0425367362722351</v>
-      </c>
-      <c r="AK6">
-        <v>0.008094186902133921</v>
-      </c>
-      <c r="AL6">
-        <v>0.001</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>-0.1565096952908587</v>
-      </c>
-      <c r="AO6">
-        <v>-5360</v>
-      </c>
-      <c r="AP6">
-        <v>-0.07617728531855955</v>
+        <v>0.04977375565610859</v>
       </c>
     </row>
   </sheetData>
